--- a/Vuejs/vue01docs/Vue정리-202000606.xlsx
+++ b/Vuejs/vue01docs/Vue정리-202000606.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TIS20201018.VueReact\VueReact\Vuejs\vue01docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="24240" windowHeight="12780" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="용어" sheetId="4" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="141">
   <si>
     <t>beforeDestroy</t>
   </si>
@@ -845,12 +850,16 @@
     <t>component --.dispatch()--&gt; actions --.commit()--&gt; mutations(≈Dispatcher) --&gt; state --&gt; getters</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>data 는 메서드다, 템플릿의 위치 주의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1190,6 +1199,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3193,7 +3205,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3228,7 +3240,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3443,7 +3455,7 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.25" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="8" customWidth="1"/>
@@ -3455,7 +3467,7 @@
     <col min="10" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="19.5">
       <c r="A1" s="36" t="s">
         <v>39</v>
       </c>
@@ -3468,7 +3480,7 @@
       <c r="H1" s="36"/>
       <c r="I1" s="24"/>
     </row>
-    <row r="2" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="25.5" customHeight="1">
       <c r="A2" s="36" t="s">
         <v>125</v>
       </c>
@@ -3481,7 +3493,7 @@
       <c r="H2" s="13"/>
       <c r="I2" s="24"/>
     </row>
-    <row r="3" spans="1:9" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="19.5">
       <c r="A3" s="13" t="s">
         <v>40</v>
       </c>
@@ -3494,7 +3506,7 @@
       <c r="H3" s="13"/>
       <c r="I3" s="24"/>
     </row>
-    <row r="4" spans="1:9" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="19.5">
       <c r="A4" s="24"/>
       <c r="B4" s="24"/>
       <c r="C4" s="24"/>
@@ -3502,7 +3514,7 @@
       <c r="E4" s="24"/>
       <c r="F4" s="24"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9">
       <c r="A5" s="6" t="s">
         <v>16</v>
       </c>
@@ -3510,7 +3522,7 @@
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="14.25">
       <c r="A6" s="37" t="s">
         <v>17</v>
       </c>
@@ -3526,7 +3538,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="14.25">
       <c r="A7" s="26" t="s">
         <v>19</v>
       </c>
@@ -3546,7 +3558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="14.25">
       <c r="A8" s="26" t="s">
         <v>21</v>
       </c>
@@ -3566,7 +3578,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="14.25">
       <c r="A9" s="26" t="s">
         <v>38</v>
       </c>
@@ -3582,7 +3594,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15">
       <c r="A10" s="29"/>
       <c r="B10" s="30"/>
       <c r="C10" s="30"/>
@@ -3593,7 +3605,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="14.25">
       <c r="A11" s="26" t="s">
         <v>23</v>
       </c>
@@ -3606,7 +3618,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="14.25">
       <c r="A12" s="26" t="s">
         <v>24</v>
       </c>
@@ -3617,7 +3629,7 @@
       <c r="G12" s="33"/>
       <c r="H12" s="34"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9">
       <c r="A13" s="26" t="s">
         <v>26</v>
       </c>
@@ -3655,7 +3667,7 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="14.375" style="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="21" bestFit="1" customWidth="1"/>
@@ -3664,7 +3676,7 @@
     <col min="5" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="15" t="s">
         <v>3</v>
       </c>
@@ -3675,7 +3687,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="38" t="s">
         <v>10</v>
       </c>
@@ -3686,7 +3698,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="28.5">
       <c r="A3" s="38"/>
       <c r="B3" s="15" t="s">
         <v>5</v>
@@ -3695,14 +3707,14 @@
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="38"/>
       <c r="B4" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="22"/>
     </row>
-    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="42.75">
       <c r="A5" s="38"/>
       <c r="B5" s="15" t="s">
         <v>7</v>
@@ -3711,7 +3723,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="42.75">
       <c r="A6" s="38"/>
       <c r="B6" s="15" t="s">
         <v>9</v>
@@ -3720,14 +3732,14 @@
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" s="38"/>
       <c r="B7" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="15"/>
     </row>
-    <row r="8" spans="1:3" ht="60" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="57">
       <c r="A8" s="38"/>
       <c r="B8" s="15" t="s">
         <v>11</v>
@@ -3736,12 +3748,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="15">
       <c r="A9" s="23"/>
       <c r="B9" s="23"/>
       <c r="C9" s="23"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="15">
       <c r="A10" s="23"/>
       <c r="B10" s="23"/>
       <c r="C10" s="23"/>
@@ -3764,14 +3776,14 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="46.75" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="46.75" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.125" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="78.75" style="8" customWidth="1"/>
     <col min="3" max="16384" width="46.75" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="14" t="s">
         <v>66</v>
       </c>
@@ -3779,7 +3791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="27">
       <c r="A2" s="4" t="s">
         <v>82</v>
       </c>
@@ -3787,7 +3799,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" s="39" t="s">
         <v>80</v>
       </c>
@@ -3795,13 +3807,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="28.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="27">
       <c r="A4" s="39"/>
       <c r="B4" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
         <v>77</v>
       </c>
@@ -3809,7 +3821,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
         <v>75</v>
       </c>
@@ -3817,7 +3829,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="28.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="27">
       <c r="A7" s="4" t="s">
         <v>73</v>
       </c>
@@ -3825,7 +3837,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="42.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="40.5">
       <c r="A8" s="4" t="s">
         <v>71</v>
       </c>
@@ -3833,7 +3845,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="27">
       <c r="A9" s="4" t="s">
         <v>0</v>
       </c>
@@ -3841,7 +3853,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="28.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="27">
       <c r="A10" s="4" t="s">
         <v>68</v>
       </c>
@@ -3867,7 +3879,7 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="18" style="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="16" bestFit="1" customWidth="1"/>
@@ -3876,7 +3888,7 @@
     <col min="5" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="8" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="8" customFormat="1" ht="19.5">
       <c r="A1" s="36" t="s">
         <v>39</v>
       </c>
@@ -3888,7 +3900,7 @@
       <c r="G1" s="36"/>
       <c r="H1" s="36"/>
     </row>
-    <row r="2" spans="1:8" s="8" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="8" customFormat="1" ht="20.25">
       <c r="A2" s="36" t="s">
         <v>46</v>
       </c>
@@ -3900,7 +3912,7 @@
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
     </row>
-    <row r="3" spans="1:8" s="8" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="8" customFormat="1" ht="19.5">
       <c r="A3" s="13" t="s">
         <v>40</v>
       </c>
@@ -3912,7 +3924,7 @@
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
     </row>
-    <row r="4" spans="1:8" s="8" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" s="8" customFormat="1" ht="19.5">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -3922,7 +3934,7 @@
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
     </row>
-    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="14.25">
       <c r="A5" s="14" t="s">
         <v>66</v>
       </c>
@@ -3936,7 +3948,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="42.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="40.5">
       <c r="A6" s="1" t="s">
         <v>60</v>
       </c>
@@ -3946,7 +3958,7 @@
       </c>
       <c r="D6" s="14"/>
     </row>
-    <row r="7" spans="1:8" ht="42.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="40.5">
       <c r="A7" s="1" t="s">
         <v>65</v>
       </c>
@@ -3956,7 +3968,7 @@
       </c>
       <c r="D7" s="14"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="27">
       <c r="A8" s="1" t="s">
         <v>63</v>
       </c>
@@ -3964,7 +3976,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="14"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>62</v>
       </c>
@@ -3972,13 +3984,13 @@
       <c r="C9" s="1"/>
       <c r="D9" s="14"/>
     </row>
-    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="30" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="17"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>61</v>
       </c>
@@ -3986,13 +3998,13 @@
       <c r="C11" s="1"/>
       <c r="D11" s="14"/>
     </row>
-    <row r="12" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="32.25" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="17"/>
     </row>
-    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="28.5">
       <c r="A13" s="15" t="s">
         <v>12</v>
       </c>
@@ -4006,7 +4018,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="28.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="27">
       <c r="A14" s="1" t="s">
         <v>58</v>
       </c>
@@ -4020,7 +4032,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="28.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="27">
       <c r="A15" s="1" t="s">
         <v>56</v>
       </c>
@@ -4034,13 +4046,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="34.5" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="19"/>
       <c r="C16" s="2"/>
       <c r="D16" s="20"/>
     </row>
-    <row r="17" spans="1:4" ht="57" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="67.5">
       <c r="A17" s="1" t="s">
         <v>54</v>
       </c>
@@ -4054,7 +4066,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="14.25">
       <c r="A18" s="1" t="s">
         <v>83</v>
       </c>
@@ -4068,13 +4080,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="30.75" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" s="19"/>
       <c r="C19" s="2"/>
       <c r="D19" s="20"/>
     </row>
-    <row r="20" spans="1:4" ht="99.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="94.5">
       <c r="A20" s="1" t="s">
         <v>53</v>
       </c>
@@ -4086,7 +4098,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="57" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="54">
       <c r="A21" s="1" t="s">
         <v>52</v>
       </c>
@@ -4114,11 +4126,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="41.125" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="41.125" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.875" style="8" customWidth="1"/>
     <col min="2" max="2" width="18.625" style="8" bestFit="1" customWidth="1"/>
@@ -4127,22 +4139,22 @@
     <col min="6" max="16384" width="41.125" style="8"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5">
       <c r="B2" s="8" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5">
       <c r="B3" s="8" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5">
       <c r="B4" s="8" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5">
       <c r="B6" s="6" t="s">
         <v>50</v>
       </c>
@@ -4156,7 +4168,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" ht="14.25">
       <c r="B7" s="6" t="s">
         <v>121</v>
       </c>
@@ -4170,7 +4182,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="299.25" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" ht="310.5">
       <c r="B8" s="10" t="s">
         <v>127</v>
       </c>
@@ -4184,7 +4196,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5">
       <c r="B9" s="11" t="s">
         <v>91</v>
       </c>
@@ -4195,10 +4207,10 @@
         <v>90</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
       <c r="B10" s="6" t="s">
         <v>123</v>
       </c>
@@ -4212,49 +4224,49 @@
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5" ht="18">
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="2:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5" ht="18">
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="2:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" ht="18">
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="2:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5" ht="18">
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5" ht="14.25">
       <c r="E15" s="12"/>
     </row>
-    <row r="16" spans="2:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:5" ht="18">
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="5:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:5" ht="18">
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="5:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:5" ht="18">
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="5:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:5" ht="18">
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="5:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:5" ht="18.75">
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="5:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:5" ht="18.75">
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:5">
       <c r="E22" s="12"/>
     </row>
-    <row r="23" spans="5:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:5" ht="18.75">
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="5:5">
       <c r="E24" s="12"/>
     </row>
-    <row r="25" spans="5:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="25" spans="5:5" ht="18.75">
       <c r="E25" s="3"/>
     </row>
   </sheetData>
@@ -4268,11 +4280,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="8"/>
     <col min="2" max="2" width="11" style="8" bestFit="1" customWidth="1"/>
@@ -4284,22 +4296,22 @@
     <col min="8" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="B2" s="8" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="B3" s="8" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="B4" s="8" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="9"/>
       <c r="B6" s="6" t="s">
         <v>97</v>
@@ -4317,7 +4329,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="270.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="256.5">
       <c r="A7" s="9"/>
       <c r="B7" s="4" t="s">
         <v>92</v>
@@ -4335,7 +4347,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="106.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="103.5">
       <c r="A8" s="9"/>
       <c r="B8" s="4" t="s">
         <v>93</v>
@@ -4353,7 +4365,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="171" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="162">
       <c r="A9" s="9"/>
       <c r="B9" s="6" t="s">
         <v>94</v>
@@ -4371,7 +4383,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="99.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="94.5">
       <c r="A10" s="9"/>
       <c r="B10" s="6" t="s">
         <v>96</v>
@@ -4389,7 +4401,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="156.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="148.5">
       <c r="A11" s="9"/>
       <c r="B11" s="6" t="s">
         <v>95</v>
